--- a/TXRH.xlsx
+++ b/TXRH.xlsx
@@ -216,7 +216,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -267,8 +267,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -283,8 +283,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,13 +746,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
+      <selection pane="bottomRight" activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,64 +764,96 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>2017</v>
+      </c>
+      <c r="V3">
+        <f>U3+1</f>
+        <v>2018</v>
+      </c>
+      <c r="W3">
+        <f>V3+1</f>
+        <v>2019</v>
+      </c>
+      <c r="X3">
+        <f>W3+1</f>
+        <v>2020</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:AB3" si="0">X3+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -870,8 +902,29 @@
       <c r="Q5">
         <v>601</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>440</v>
+      </c>
+      <c r="V5">
+        <v>464</v>
+      </c>
+      <c r="W5">
+        <v>484</v>
+      </c>
+      <c r="X5">
+        <v>503</v>
+      </c>
+      <c r="Y5">
+        <v>526</v>
+      </c>
+      <c r="Z5">
+        <v>552</v>
+      </c>
+      <c r="AA5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -920,8 +973,29 @@
       <c r="Q6">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>70</v>
+      </c>
+      <c r="V6">
+        <v>69</v>
+      </c>
+      <c r="W6">
+        <v>69</v>
+      </c>
+      <c r="X6">
+        <v>69</v>
+      </c>
+      <c r="Y6">
+        <v>70</v>
+      </c>
+      <c r="Z6">
+        <v>62</v>
+      </c>
+      <c r="AA6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -970,8 +1044,29 @@
       <c r="Q7">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>17</v>
+      </c>
+      <c r="V7">
+        <v>22</v>
+      </c>
+      <c r="W7">
+        <v>28</v>
+      </c>
+      <c r="X7">
+        <v>28</v>
+      </c>
+      <c r="Y7">
+        <v>31</v>
+      </c>
+      <c r="Z7">
+        <v>38</v>
+      </c>
+      <c r="AA7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1020,8 +1115,29 @@
       <c r="Q8">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8">
+        <v>28</v>
+      </c>
+      <c r="X8">
+        <v>31</v>
+      </c>
+      <c r="Y8">
+        <v>36</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1070,8 +1186,29 @@
       <c r="Q9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -1120,80 +1257,129 @@
       <c r="Q10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C11">
-        <f>SUM(C5:C10)</f>
+        <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
         <v>637</v>
       </c>
       <c r="D11">
-        <f>SUM(D5:D10)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="E11">
-        <f>SUM(E5:E10)</f>
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="F11">
-        <f>SUM(F5:F10)</f>
+        <f t="shared" si="1"/>
         <v>667</v>
       </c>
       <c r="G11">
-        <f>SUM(G5:G10)</f>
+        <f t="shared" si="1"/>
         <v>672</v>
       </c>
       <c r="H11">
-        <f>SUM(H5:H10)</f>
+        <f t="shared" si="1"/>
         <v>678</v>
       </c>
       <c r="I11">
-        <f>SUM(I5:I10)</f>
+        <f t="shared" si="1"/>
         <v>685</v>
       </c>
       <c r="J11">
-        <f>SUM(J5:J10)</f>
+        <f t="shared" si="1"/>
         <v>697</v>
       </c>
       <c r="K11">
-        <f>SUM(K5:K10)</f>
+        <f t="shared" si="1"/>
         <v>704</v>
       </c>
       <c r="L11">
-        <f>SUM(L5:L10)</f>
+        <f t="shared" si="1"/>
         <v>709</v>
       </c>
       <c r="M11">
-        <f>SUM(M5:M10)</f>
+        <f t="shared" si="1"/>
         <v>722</v>
       </c>
       <c r="N11">
-        <f>SUM(N5:N10)</f>
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="O11">
-        <f>SUM(O5:O10)</f>
+        <f t="shared" si="1"/>
         <v>753</v>
       </c>
       <c r="P11">
-        <f>SUM(P5:P10)</f>
+        <f t="shared" si="1"/>
         <v>762</v>
       </c>
       <c r="Q11">
-        <f>SUM(Q5:Q10)</f>
+        <f t="shared" si="1"/>
         <v>772</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" ref="U11:AA11" si="2">SUM(U5:U10)</f>
+        <v>549</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>611</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>634</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>667</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
@@ -1258,7 +1444,7 @@
         <v>130262</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
@@ -1315,75 +1501,75 @@
         <v>18914</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C13:C14)</f>
+        <f t="shared" ref="C15:Q15" si="3">SUM(C13:C14)</f>
         <v>124217</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM(D13:D14)</f>
+        <f t="shared" si="3"/>
         <v>126442</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E13:E14)</f>
+        <f t="shared" si="3"/>
         <v>120094</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F13:F14)</f>
+        <f t="shared" si="3"/>
         <v>121976</v>
       </c>
       <c r="G15" s="1">
-        <f>SUM(G13:G14)</f>
+        <f t="shared" si="3"/>
         <v>132263</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H13:H14)</f>
+        <f t="shared" si="3"/>
         <v>135697.41</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I13:I14)</f>
+        <f t="shared" si="3"/>
         <v>129278</v>
       </c>
       <c r="J15" s="1">
-        <f>SUM(J13:J14)</f>
+        <f t="shared" si="3"/>
         <v>130176</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM(K13:K14)</f>
+        <f t="shared" si="3"/>
         <v>148437</v>
       </c>
       <c r="L15" s="1">
-        <f>SUM(L13:L14)</f>
+        <f t="shared" si="3"/>
         <v>146727</v>
       </c>
       <c r="M15" s="1">
-        <f>SUM(M13:M14)</f>
+        <f t="shared" si="3"/>
         <v>138668</v>
       </c>
       <c r="N15" s="1">
-        <f>SUM(N13:N14)</f>
+        <f t="shared" si="3"/>
         <v>141663</v>
       </c>
       <c r="O15" s="1">
-        <f>SUM(O13:O14)</f>
+        <f t="shared" si="3"/>
         <v>117748</v>
       </c>
       <c r="P15" s="1">
-        <f>SUM(P13:P14)</f>
+        <f t="shared" si="3"/>
         <v>158991</v>
       </c>
       <c r="Q15" s="1">
-        <f>SUM(Q13:Q14)</f>
+        <f t="shared" si="3"/>
         <v>149176</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1432,8 +1618,29 @@
       <c r="Q17" s="1">
         <v>1265279</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>2203017</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2437115</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2734177</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2380177</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>3439176</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>3988791</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>4604554</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1482,73 +1689,122 @@
       <c r="Q18" s="1">
         <v>7720</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>16514</v>
+      </c>
+      <c r="V18" s="1">
+        <v>20334</v>
+      </c>
+      <c r="W18" s="1">
+        <v>21986</v>
+      </c>
+      <c r="X18" s="1">
+        <v>17946</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>24770</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>26128</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>27118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
-        <f>+C18+C17</f>
+        <f t="shared" ref="C19:Q19" si="4">+C18+C17</f>
         <v>800629</v>
       </c>
       <c r="D19" s="1">
-        <f>+D18+D17</f>
+        <f t="shared" si="4"/>
         <v>898788</v>
       </c>
       <c r="E19" s="1">
-        <f>+E18+E17</f>
+        <f t="shared" si="4"/>
         <v>868943</v>
       </c>
       <c r="F19" s="1">
-        <f>+F18+F17</f>
+        <f t="shared" si="4"/>
         <v>895586</v>
       </c>
       <c r="G19" s="1">
-        <f>+G18+G17</f>
+        <f t="shared" si="4"/>
         <v>987486</v>
       </c>
       <c r="H19" s="1">
-        <f>+H18+H17</f>
+        <f t="shared" si="4"/>
         <v>1024606</v>
       </c>
       <c r="I19" s="1">
-        <f>+I18+I17</f>
+        <f t="shared" si="4"/>
         <v>993298</v>
       </c>
       <c r="J19" s="1">
-        <f>+J18+J17</f>
+        <f t="shared" si="4"/>
         <v>1009529</v>
       </c>
       <c r="K19" s="1">
-        <f>+K18+K17</f>
+        <f t="shared" si="4"/>
         <v>1174356</v>
       </c>
       <c r="L19" s="1">
-        <f>+L18+L17</f>
+        <f t="shared" si="4"/>
         <v>1171203</v>
       </c>
       <c r="M19" s="1">
-        <f>+M18+M17</f>
+        <f t="shared" si="4"/>
         <v>1121752</v>
       </c>
       <c r="N19" s="1">
-        <f>+N18+N17</f>
+        <f t="shared" si="4"/>
         <v>1164361</v>
       </c>
       <c r="O19" s="1">
-        <f>+O18+O17</f>
+        <f t="shared" si="4"/>
         <v>1321217</v>
       </c>
       <c r="P19" s="1">
-        <f>+P18+P17</f>
+        <f t="shared" si="4"/>
         <v>1341202</v>
       </c>
       <c r="Q19" s="1">
-        <f>+Q18+Q17</f>
+        <f t="shared" si="4"/>
         <v>1272999</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <f t="shared" ref="U19:AA19" si="5">+U18+U17</f>
+        <v>2219531</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="5"/>
+        <v>2457449</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="5"/>
+        <v>2756163</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="5"/>
+        <v>2398123</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="5"/>
+        <v>3463946</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="5"/>
+        <v>4014919</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="5"/>
+        <v>4631672</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1597,8 +1853,29 @@
       <c r="Q20" s="1">
         <v>424566</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>721550</v>
+      </c>
+      <c r="V20" s="1">
+        <v>795300</v>
+      </c>
+      <c r="W20" s="1">
+        <v>883357</v>
+      </c>
+      <c r="X20" s="1">
+        <v>780646</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1156628</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1378192</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1593852</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1647,8 +1924,29 @@
       <c r="Q21" s="1">
         <v>427470</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>687545</v>
+      </c>
+      <c r="V21" s="1">
+        <v>793384</v>
+      </c>
+      <c r="W21" s="1">
+        <v>905614</v>
+      </c>
+      <c r="X21" s="1">
+        <v>875764</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1123003</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1319959</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1539124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -1697,8 +1995,29 @@
       <c r="Q22" s="1">
         <v>20162</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>44807</v>
+      </c>
+      <c r="V22" s="1">
+        <v>48791</v>
+      </c>
+      <c r="W22" s="1">
+        <v>52531</v>
+      </c>
+      <c r="X22" s="1">
+        <v>54401</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>60005</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>66834</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>72766</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1747,8 +2066,29 @@
       <c r="Q23" s="1">
         <v>191011</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>342702</v>
+      </c>
+      <c r="V23" s="1">
+        <v>375477</v>
+      </c>
+      <c r="W23" s="1">
+        <v>418448</v>
+      </c>
+      <c r="X23" s="1">
+        <v>403726</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>517808</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>596305</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>690848</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1797,8 +2137,29 @@
       <c r="Q24" s="1">
         <v>7282</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U24" s="1">
+        <v>19274</v>
+      </c>
+      <c r="V24" s="1">
+        <v>19051</v>
+      </c>
+      <c r="W24" s="1">
+        <v>20156</v>
+      </c>
+      <c r="X24" s="1">
+        <v>20099</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>24335</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>21883</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>29234</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1847,8 +2208,29 @@
       <c r="Q25" s="1">
         <v>44510</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U25" s="1">
+        <v>93499</v>
+      </c>
+      <c r="V25" s="1">
+        <v>101216</v>
+      </c>
+      <c r="W25" s="1">
+        <v>115544</v>
+      </c>
+      <c r="X25" s="1">
+        <v>117877</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>126761</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>137237</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>153202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -1897,8 +2279,29 @@
       <c r="Q26" s="1">
         <v>844</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>654</v>
+      </c>
+      <c r="V26" s="1">
+        <v>278</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-899</v>
+      </c>
+      <c r="X26" s="1">
+        <v>2263</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>734</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1600</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -1947,73 +2350,122 @@
       <c r="Q27" s="1">
         <v>55131</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>123294</v>
+      </c>
+      <c r="V27" s="1">
+        <v>136163</v>
+      </c>
+      <c r="W27" s="1">
+        <v>149389</v>
+      </c>
+      <c r="X27" s="1">
+        <v>119503</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>157480</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>172712</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>198382</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="1">
-        <f>SUM(C20:C27)</f>
+        <f t="shared" ref="C28:Q28" si="6">SUM(C20:C27)</f>
         <v>719702</v>
       </c>
       <c r="D28" s="1">
-        <f>SUM(D20:D27)</f>
+        <f t="shared" si="6"/>
         <v>809060</v>
       </c>
       <c r="E28" s="1">
-        <f>SUM(E20:E27)</f>
+        <f t="shared" si="6"/>
         <v>807245</v>
       </c>
       <c r="F28" s="1">
-        <f>SUM(F20:F27)</f>
+        <f t="shared" si="6"/>
         <v>830747</v>
       </c>
       <c r="G28" s="1">
-        <f>SUM(G20:G27)</f>
+        <f t="shared" si="6"/>
         <v>897348</v>
       </c>
       <c r="H28" s="1">
-        <f>SUM(H20:H27)</f>
+        <f t="shared" si="6"/>
         <v>938688</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(I20:I27)</f>
+        <f t="shared" si="6"/>
         <v>918010</v>
       </c>
       <c r="J28" s="1">
-        <f>SUM(J20:J27)</f>
+        <f t="shared" si="6"/>
         <v>940676</v>
       </c>
       <c r="K28" s="1">
-        <f>SUM(K20:K27)</f>
+        <f t="shared" si="6"/>
         <v>1073411</v>
       </c>
       <c r="L28" s="1">
-        <f>SUM(L20:L27)</f>
+        <f t="shared" si="6"/>
         <v>1075791</v>
       </c>
       <c r="M28" s="1">
-        <f>SUM(M20:M27)</f>
+        <f t="shared" si="6"/>
         <v>1047893</v>
       </c>
       <c r="N28" s="1">
-        <f>SUM(N20:N27)</f>
+        <f t="shared" si="6"/>
         <v>1080588</v>
       </c>
       <c r="O28" s="1">
-        <f>SUM(O20:O27)</f>
+        <f t="shared" si="6"/>
         <v>1188089</v>
       </c>
       <c r="P28" s="1">
-        <f>SUM(P20:P27)</f>
+        <f t="shared" si="6"/>
         <v>1198386</v>
       </c>
       <c r="Q28" s="1">
         <f>SUM(Q20:Q27)</f>
         <v>1170976</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <f>SUM(U20:U27)</f>
+        <v>2033325</v>
+      </c>
+      <c r="V28" s="1">
+        <f>SUM(V20:V27)</f>
+        <v>2269660</v>
+      </c>
+      <c r="W28" s="1">
+        <f>SUM(W20:W27)</f>
+        <v>2544140</v>
+      </c>
+      <c r="X28" s="1">
+        <f>SUM(X20:X27)</f>
+        <v>2374279</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>SUM(Y20:Y27)</f>
+        <v>3166754</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" ref="Y28:AA28" si="7">SUM(Z20:Z27)</f>
+        <v>3694722</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="7"/>
+        <v>4277683</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -2077,8 +2529,36 @@
         <f>Q19-Q28+1916+235</f>
         <v>104174</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U29" s="1">
+        <f>U19-U28-1577+1488</f>
+        <v>186117</v>
+      </c>
+      <c r="V29" s="1">
+        <f>V19-V28-591+1353</f>
+        <v>188551</v>
+      </c>
+      <c r="W29" s="1">
+        <f>W19-W28+1514+378</f>
+        <v>213915</v>
+      </c>
+      <c r="X29" s="1">
+        <f>X19-X28-4091-500</f>
+        <v>19253</v>
+      </c>
+      <c r="Y29" s="1">
+        <f>Y19-Y28-3663-637</f>
+        <v>292892</v>
+      </c>
+      <c r="Z29" s="1">
+        <f>Z19-Z28-124+1239</f>
+        <v>321312</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>AA19-AA28+2984+1351</f>
+        <v>358324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2127,8 +2607,29 @@
       <c r="Q30" s="1">
         <v>17400</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U30" s="1">
+        <v>48581</v>
+      </c>
+      <c r="V30" s="1">
+        <v>24257</v>
+      </c>
+      <c r="W30" s="1">
+        <v>32397</v>
+      </c>
+      <c r="X30" s="1">
+        <v>-15672</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>39678</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>43715</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -2177,138 +2678,199 @@
       <c r="Q31" s="1">
         <v>2362</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U31" s="1">
+        <v>6010</v>
+      </c>
+      <c r="V31" s="1">
+        <v>6069</v>
+      </c>
+      <c r="W31" s="1">
+        <v>7066</v>
+      </c>
+      <c r="X31" s="1">
+        <v>3670</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>8020</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>7779</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="1">
-        <f>+C29-C30-C31</f>
+        <f t="shared" ref="C32:Q32" si="8">+C29-C30-C31</f>
         <v>64150</v>
       </c>
       <c r="D32" s="1">
-        <f>+D29-D30-D31</f>
+        <f t="shared" si="8"/>
         <v>75480</v>
       </c>
       <c r="E32" s="1">
-        <f>+E29-E30-E31</f>
+        <f t="shared" si="8"/>
         <v>52606</v>
       </c>
       <c r="F32" s="1">
-        <f>+F29-F30-F31</f>
+        <f t="shared" si="8"/>
         <v>53058</v>
       </c>
       <c r="G32" s="1">
-        <f>+G29-G30-G31</f>
+        <f t="shared" si="8"/>
         <v>75202</v>
       </c>
       <c r="H32" s="1">
-        <f>+H29-H30-H31</f>
+        <f t="shared" si="8"/>
         <v>72419</v>
       </c>
       <c r="I32" s="1">
-        <f>+I29-I30-I31</f>
+        <f t="shared" si="8"/>
         <v>62328</v>
       </c>
       <c r="J32" s="1">
-        <f>+J29-J30-J31</f>
+        <f t="shared" si="8"/>
         <v>59869</v>
       </c>
       <c r="K32" s="1">
-        <f>+K29-K30-K31</f>
+        <f t="shared" si="8"/>
         <v>86387</v>
       </c>
       <c r="L32" s="1">
-        <f>+L29-L30-L31</f>
+        <f t="shared" si="8"/>
         <v>82271</v>
       </c>
       <c r="M32" s="1">
-        <f>+M29-M30-M31</f>
+        <f t="shared" si="8"/>
         <v>63788</v>
       </c>
       <c r="N32" s="1">
-        <f>+N29-N30-N31</f>
+        <f t="shared" si="8"/>
         <v>72430</v>
       </c>
       <c r="O32" s="1">
-        <f>+O29-O30-O31</f>
+        <f t="shared" si="8"/>
         <v>113206</v>
       </c>
       <c r="P32" s="1">
-        <f>+P29-P30-P31</f>
+        <f t="shared" si="8"/>
         <v>120141</v>
       </c>
       <c r="Q32" s="1">
-        <f>+Q29-Q30-Q31</f>
+        <f t="shared" si="8"/>
         <v>84412</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U32" s="1">
+        <f>+U29-U30-U31</f>
+        <v>131526</v>
+      </c>
+      <c r="V32" s="1">
+        <f>+V29-V30-V31</f>
+        <v>158225</v>
+      </c>
+      <c r="W32" s="1">
+        <f>+W29-W30-W31</f>
+        <v>174452</v>
+      </c>
+      <c r="X32" s="1">
+        <f>+X29-X30-X31</f>
+        <v>31255</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" ref="X32:AA32" si="9">+Y29-Y30-Y31</f>
+        <v>245194</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="9"/>
+        <v>269818</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="9"/>
+        <v>304876</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <f>+C32/C34</f>
+        <f t="shared" ref="C33:Q33" si="10">+C32/C34</f>
         <v>0.91463849323466928</v>
       </c>
       <c r="D33" s="8">
-        <f>+D32/D34</f>
+        <f t="shared" si="10"/>
         <v>1.075811348184889</v>
       </c>
       <c r="E33" s="8">
-        <f>+E32/E34</f>
+        <f t="shared" si="10"/>
         <v>0.74995010406865681</v>
       </c>
       <c r="F33" s="2">
-        <f>+F32/F34</f>
+        <f t="shared" si="10"/>
         <v>0.75830725035372804</v>
       </c>
       <c r="G33" s="2">
-        <f>+G32/G34</f>
+        <f t="shared" si="10"/>
         <v>1.0840240439364017</v>
       </c>
       <c r="H33" s="2">
-        <f>+H32/H34</f>
+        <f t="shared" si="10"/>
         <v>1.0667108557961409</v>
       </c>
       <c r="I33" s="2">
-        <f>+I32/I34</f>
+        <f t="shared" si="10"/>
         <v>0.92806623088491491</v>
       </c>
       <c r="J33" s="2">
-        <f>+J32/J34</f>
+        <f t="shared" si="10"/>
         <v>0.88998067489222532</v>
       </c>
       <c r="K33" s="2">
-        <f>+K32/K34</f>
+        <f t="shared" si="10"/>
         <v>1.2837442230246832</v>
       </c>
       <c r="L33" s="2">
-        <f>+L32/L34</f>
+        <f t="shared" si="10"/>
         <v>1.223742730071844</v>
       </c>
       <c r="M33" s="2">
-        <f>+M32/M34</f>
+        <f t="shared" si="10"/>
         <v>0.95186080520488259</v>
       </c>
       <c r="N33" s="2">
-        <f>+N32/N34</f>
+        <f t="shared" si="10"/>
         <v>1.0797877098303468</v>
       </c>
       <c r="O33" s="2">
-        <f>+O32/O34</f>
+        <f t="shared" si="10"/>
         <v>1.6885329037646919</v>
       </c>
       <c r="P33" s="2">
-        <f>+P32/P34</f>
+        <f t="shared" si="10"/>
         <v>1.7919724360121712</v>
       </c>
       <c r="Q33" s="2">
-        <f>+Q32/Q34</f>
+        <f t="shared" si="10"/>
         <v>1.2609533483710023</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y33" s="2">
+        <f>Y32/Y34</f>
+        <v>3.4978744044052612</v>
+      </c>
+      <c r="Z33" s="2">
+        <f>Z32/Z34</f>
+        <v>3.972585394581861</v>
+      </c>
+      <c r="AA33" s="2">
+        <f>AA32/AA34</f>
+        <v>4.5402909946536809</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2357,8 +2919,20 @@
       <c r="Q34" s="1">
         <v>66943</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y34" s="1">
+        <f>70098</f>
+        <v>70098</v>
+      </c>
+      <c r="Z34" s="1">
+        <f>67920</f>
+        <v>67920</v>
+      </c>
+      <c r="AA34" s="1">
+        <f>67149</f>
+        <v>67149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -2366,17 +2940,106 @@
         <f>C32</f>
         <v>64150</v>
       </c>
+      <c r="D36" s="1">
+        <f>D32</f>
+        <v>75480</v>
+      </c>
+      <c r="E36" s="1">
+        <f>E32</f>
+        <v>52606</v>
+      </c>
+      <c r="F36" s="1">
+        <f>F32</f>
+        <v>53058</v>
+      </c>
       <c r="G36" s="1">
         <f>G32</f>
         <v>75202</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f>H32</f>
+        <v>72419</v>
+      </c>
+      <c r="I36" s="1">
+        <f>I32</f>
+        <v>62328</v>
+      </c>
+      <c r="J36" s="1">
+        <f>J32</f>
+        <v>59869</v>
+      </c>
+      <c r="K36" s="1">
+        <f>K32</f>
+        <v>86387</v>
+      </c>
+      <c r="L36" s="1">
+        <f>L32</f>
+        <v>82271</v>
+      </c>
+      <c r="M36" s="1">
+        <f>M32</f>
+        <v>63788</v>
+      </c>
+      <c r="N36" s="1">
+        <f>N32</f>
+        <v>72430</v>
+      </c>
+      <c r="O36" s="1">
+        <f>O32</f>
+        <v>113206</v>
+      </c>
+      <c r="P36" s="1">
+        <f>P32</f>
+        <v>120141</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>Q32</f>
+        <v>84412</v>
+      </c>
+      <c r="Y36" s="1">
+        <f>Y32</f>
+        <v>245194</v>
+      </c>
+      <c r="Z36" s="1">
+        <f>Z32</f>
+        <v>269818</v>
+      </c>
+      <c r="AA36" s="1">
+        <f>AA32</f>
+        <v>304876</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <f>253314-SUM(C36:E36)</f>
+        <v>61078</v>
+      </c>
+      <c r="J37" s="1">
+        <f>277597-SUM(G36:I36)</f>
+        <v>67648</v>
+      </c>
+      <c r="Y37" s="1">
+        <f>253314</f>
+        <v>253314</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>277597</f>
+        <v>277597</v>
+      </c>
+      <c r="AA37" s="1">
+        <f>313675</f>
+        <v>313675</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -2384,13 +3047,16 @@
         <v>66430</v>
       </c>
       <c r="D39" s="1">
-        <v>144355</v>
+        <f>144355-C39</f>
+        <v>77925</v>
       </c>
       <c r="E39" s="1">
-        <v>198571</v>
+        <f>198571-SUM(C39:D39)</f>
+        <v>54216</v>
       </c>
       <c r="F39" s="1">
-        <v>253314</v>
+        <f>253314-SUM(C39:E39)</f>
+        <v>54743</v>
       </c>
       <c r="G39" s="1">
         <f>77328</f>
@@ -2434,8 +3100,18 @@
         <f>325839-SUM(O39:P39)</f>
         <v>86774</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y39" s="1">
+        <v>253314</v>
+      </c>
+      <c r="Z39" s="1">
+        <f>277597</f>
+        <v>277597</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>313675</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -2443,13 +3119,16 @@
         <v>30869</v>
       </c>
       <c r="D40" s="1">
-        <v>62519</v>
+        <f>62519-C40</f>
+        <v>31650</v>
       </c>
       <c r="E40" s="1">
-        <v>94146</v>
+        <f>94146-SUM(C40:D40)</f>
+        <v>31627</v>
       </c>
       <c r="F40" s="1">
-        <v>126761</v>
+        <f>126761-SUM(C40:E40)</f>
+        <v>32615</v>
       </c>
       <c r="G40" s="1">
         <v>33620</v>
@@ -2492,8 +3171,17 @@
         <f>128918-SUM(O40:P40)</f>
         <v>44510</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y40" s="1">
+        <v>126761</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>137237</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>153202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>40</v>
       </c>
@@ -2501,13 +3189,16 @@
         <v>9908</v>
       </c>
       <c r="D41" s="1">
-        <v>19817</v>
+        <f>19817-C41</f>
+        <v>9909</v>
       </c>
       <c r="E41" s="1">
-        <v>30787</v>
+        <f>30787-SUM(C41:D41)</f>
+        <v>10970</v>
       </c>
       <c r="F41" s="1">
-        <v>38139</v>
+        <f>38139--SUM(C41:E41)</f>
+        <v>68926</v>
       </c>
       <c r="G41" s="1">
         <v>9120</v>
@@ -2550,8 +3241,17 @@
         <f>33154-SUM(O41:P41)</f>
         <v>14776</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y41" s="1">
+        <v>38139</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>36663</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>34230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -2559,13 +3259,16 @@
         <v>1025</v>
       </c>
       <c r="D42" s="1">
-        <v>2948</v>
+        <f>2948-C42</f>
+        <v>1923</v>
       </c>
       <c r="E42" s="1">
-        <v>-435</v>
+        <f>-435-SUM(C42:D42)</f>
+        <v>-3383</v>
       </c>
       <c r="F42" s="1">
-        <v>8896</v>
+        <f>8896-SUM(C42:E42)</f>
+        <v>9331</v>
       </c>
       <c r="G42" s="1">
         <v>2630</v>
@@ -2608,8 +3311,17 @@
         <f>-9592-SUM(O42:P42)</f>
         <v>-5338</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1">
+        <v>8896</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>9456</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -2617,13 +3329,16 @@
         <v>1166</v>
       </c>
       <c r="D43" s="1">
-        <v>1955</v>
+        <f>1955-C43</f>
+        <v>789</v>
       </c>
       <c r="E43" s="1">
-        <v>3268</v>
+        <f>3268-SUM(C43:D43)</f>
+        <v>1313</v>
       </c>
       <c r="F43" s="1">
-        <v>5555</v>
+        <f>5555-SUM(C43:E43)</f>
+        <v>2287</v>
       </c>
       <c r="G43" s="1">
         <v>1187</v>
@@ -2666,8 +3381,20 @@
         <f>3667-SUM(O43:P43)</f>
         <v>2005</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1">
+        <f>3167+637+1071+7</f>
+        <v>4882</v>
+      </c>
+      <c r="Z43" s="1">
+        <f>5206+1770-1239+1022+33</f>
+        <v>6792</v>
+      </c>
+      <c r="AA43" s="1">
+        <f>3783+200-1351+689-14</f>
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
@@ -2675,13 +3402,16 @@
         <v>68615</v>
       </c>
       <c r="D44" s="1">
-        <v>65252</v>
+        <f>65252-C44</f>
+        <v>-3363</v>
       </c>
       <c r="E44" s="1">
-        <v>22362</v>
+        <f>22362-SUM(C44:D44)</f>
+        <v>-42890</v>
       </c>
       <c r="F44" s="1">
-        <v>36161</v>
+        <f>36161-SUM(C44:E44)</f>
+        <v>13799</v>
       </c>
       <c r="G44" s="1">
         <v>63884</v>
@@ -2723,79 +3453,106 @@
         <f>34103-SUM(O44:P44)</f>
         <v>-3985</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1">
+        <f>-62399-9231-2485-13918+27730+67845+12734-8973+8624+20352+5553-9671</f>
+        <v>36161</v>
+      </c>
+      <c r="Z44" s="1">
+        <f>11062-6099-6540+5775+5408+33799-10172+5953+1889+2147+5268-4510</f>
+        <v>43980</v>
+      </c>
+      <c r="AA44" s="1">
+        <f>-24420+105-5612-22617+23083+37347+13518+1514+6581-3460+6313+25103</f>
+        <v>57455</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <f>SUM(C39:C44)</f>
+        <f t="shared" ref="C45:Q45" si="11">SUM(C39:C44)</f>
         <v>178013</v>
       </c>
       <c r="D45" s="1">
-        <f>SUM(D39:D44)</f>
-        <v>296846</v>
+        <f t="shared" si="11"/>
+        <v>118833</v>
       </c>
       <c r="E45" s="1">
-        <f>SUM(E39:E44)</f>
-        <v>348699</v>
+        <f t="shared" si="11"/>
+        <v>51853</v>
       </c>
       <c r="F45" s="1">
-        <f>SUM(F39:F44)</f>
-        <v>468826</v>
+        <f t="shared" si="11"/>
+        <v>181701</v>
       </c>
       <c r="G45" s="1">
-        <f>SUM(G39:G44)</f>
+        <f t="shared" si="11"/>
         <v>187769</v>
       </c>
       <c r="H45" s="1">
-        <f>SUM(H39:H44)</f>
+        <f t="shared" si="11"/>
         <v>110934</v>
       </c>
       <c r="I45" s="1">
-        <f>SUM(I39:I44)</f>
+        <f t="shared" si="11"/>
         <v>150490</v>
       </c>
       <c r="J45" s="1">
-        <f>SUM(J39:J44)</f>
+        <f t="shared" si="11"/>
         <v>62532</v>
       </c>
       <c r="K45" s="10">
-        <f>SUM(K39:K44)</f>
+        <f t="shared" si="11"/>
         <v>188981</v>
       </c>
       <c r="L45" s="1">
-        <f>SUM(L39:L44)</f>
+        <f t="shared" si="11"/>
         <v>99252</v>
       </c>
       <c r="M45" s="1">
-        <f>SUM(M39:M44)</f>
+        <f t="shared" si="11"/>
         <v>102506</v>
       </c>
       <c r="N45" s="1">
-        <f>SUM(N39:N44)</f>
+        <f t="shared" si="11"/>
         <v>174245</v>
       </c>
       <c r="O45" s="1">
-        <f>SUM(O39:O44)</f>
+        <f t="shared" si="11"/>
         <v>243439</v>
       </c>
       <c r="P45" s="1">
-        <f>SUM(P39:P44)</f>
+        <f t="shared" si="11"/>
         <v>133908</v>
       </c>
       <c r="Q45" s="1">
-        <f>SUM(Q39:Q44)</f>
+        <f t="shared" si="11"/>
         <v>138742</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1">
+        <f t="shared" ref="Y45:AA45" si="12">SUM(Y39:Y44)</f>
+        <v>468153</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="12"/>
+        <v>511725</v>
+      </c>
+      <c r="AA45" s="1">
+        <f t="shared" si="12"/>
+        <v>564984</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -2803,10 +3560,16 @@
         <v>-38666</v>
       </c>
       <c r="D47" s="1">
-        <v>-85068</v>
+        <f>(85068+C47)*-1</f>
+        <v>-46402</v>
+      </c>
+      <c r="E47" s="1">
+        <f>(139001+D47+C47)*-1</f>
+        <v>-53933</v>
       </c>
       <c r="F47" s="1">
-        <v>-200692</v>
+        <f>(200692+SUM(C47:E47))*-1</f>
+        <v>-61691</v>
       </c>
       <c r="G47" s="1">
         <v>-49029</v>
@@ -2849,8 +3612,17 @@
         <f>(246539+P47+O47)*-1</f>
         <v>-91061</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1">
+        <v>-200692</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>-246121</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>-347034</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -2860,178 +3632,203 @@
       </c>
       <c r="D48" s="1">
         <f>D45+D47</f>
-        <v>211778</v>
+        <v>72431</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E45+E47</f>
+        <v>-2080</v>
       </c>
       <c r="F48" s="1">
-        <f>F45+F47</f>
-        <v>268134</v>
+        <f t="shared" ref="F48:Q48" si="13">F45+F47</f>
+        <v>120010</v>
       </c>
       <c r="G48" s="1">
-        <f>G45+G47</f>
+        <f t="shared" si="13"/>
         <v>138740</v>
       </c>
       <c r="H48" s="1">
-        <f>H45+H47</f>
+        <f t="shared" si="13"/>
         <v>51396</v>
       </c>
       <c r="I48" s="1">
-        <f>I45+I47</f>
+        <f t="shared" si="13"/>
         <v>84863</v>
       </c>
       <c r="J48" s="1">
-        <f>J45+J47</f>
+        <f t="shared" si="13"/>
         <v>-9395</v>
       </c>
       <c r="K48" s="12">
-        <f>K45+K47</f>
+        <f t="shared" si="13"/>
         <v>122248</v>
       </c>
       <c r="L48" s="12">
-        <f>L45+L47</f>
+        <f t="shared" si="13"/>
         <v>11405</v>
       </c>
       <c r="M48" s="12">
-        <f>M45+M47</f>
+        <f t="shared" si="13"/>
         <v>13191</v>
       </c>
       <c r="N48" s="12">
-        <f>N45+N47</f>
+        <f t="shared" si="13"/>
         <v>4373</v>
       </c>
       <c r="O48" s="1">
-        <f>O45+O47</f>
+        <f t="shared" si="13"/>
         <v>165767</v>
       </c>
       <c r="P48" s="1">
-        <f>P45+P47</f>
+        <f t="shared" si="13"/>
         <v>56102</v>
       </c>
       <c r="Q48" s="1">
-        <f>Q45+Q47</f>
+        <f t="shared" si="13"/>
         <v>47681</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y48" s="1">
+        <f>Y45+Y47</f>
+        <v>267461</v>
+      </c>
+      <c r="Z48" s="1">
+        <f>Z45+Z47</f>
+        <v>265604</v>
+      </c>
+      <c r="AA48" s="1">
+        <f>AA45+AA47</f>
+        <v>217950</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
-        <f>+G19/C17-1</f>
+        <f t="shared" ref="G50:Q50" si="14">+G19/C17-1</f>
         <v>0.2422410724057551</v>
       </c>
       <c r="H50" s="3">
-        <f>+H19/D17-1</f>
+        <f t="shared" si="14"/>
         <v>0.14808996418822917</v>
       </c>
       <c r="I50" s="3">
-        <f>+I19/E17-1</f>
+        <f t="shared" si="14"/>
         <v>0.15130679901756805</v>
       </c>
       <c r="J50" s="3">
-        <f>+J19/F17-1</f>
+        <f t="shared" si="14"/>
         <v>0.13551175859229825</v>
       </c>
       <c r="K50" s="13">
-        <f>+K19/G17-1</f>
+        <f t="shared" si="14"/>
         <v>0.19713508642448518</v>
       </c>
       <c r="L50" s="13">
-        <f>+L19/H17-1</f>
+        <f t="shared" si="14"/>
         <v>0.15042969106837822</v>
       </c>
       <c r="M50" s="13">
-        <f>+M19/I17-1</f>
+        <f t="shared" si="14"/>
         <v>0.13652800053495495</v>
       </c>
       <c r="N50" s="13">
-        <f>+N19/J17-1</f>
+        <f t="shared" si="14"/>
         <v>0.16115273499321381</v>
       </c>
       <c r="O50" s="3">
-        <f>+O19/K17-1</f>
+        <f t="shared" si="14"/>
         <v>0.13158293671627619</v>
       </c>
       <c r="P50" s="3">
-        <f>+P19/L17-1</f>
+        <f t="shared" si="14"/>
         <v>0.15185441241513753</v>
       </c>
       <c r="Q50" s="3">
-        <f>+Q19/M17-1</f>
+        <f t="shared" si="14"/>
         <v>0.14147382050601487</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="4">
-        <f>C32/C19</f>
+        <f t="shared" ref="C51:Q51" si="15">C32/C19</f>
         <v>8.0124502110215837E-2</v>
       </c>
       <c r="D51" s="4">
-        <f>D32/D19</f>
+        <f t="shared" si="15"/>
         <v>8.3979759409337912E-2</v>
       </c>
       <c r="E51" s="4">
-        <f>E32/E19</f>
+        <f t="shared" si="15"/>
         <v>6.0540219554101937E-2</v>
       </c>
       <c r="F51" s="4">
-        <f>F32/F19</f>
+        <f t="shared" si="15"/>
         <v>5.9243891708892278E-2</v>
       </c>
       <c r="G51" s="4">
-        <f>G32/G19</f>
+        <f t="shared" si="15"/>
         <v>7.6155003716508379E-2</v>
       </c>
       <c r="H51" s="4">
-        <f>H32/H19</f>
+        <f t="shared" si="15"/>
         <v>7.0679851572214097E-2</v>
       </c>
       <c r="I51" s="4">
-        <f>I32/I19</f>
+        <f t="shared" si="15"/>
         <v>6.2748540719904808E-2</v>
       </c>
       <c r="J51" s="4">
-        <f>J32/J19</f>
+        <f t="shared" si="15"/>
         <v>5.9303893201681182E-2</v>
       </c>
       <c r="K51" s="14">
-        <f>K32/K19</f>
+        <f t="shared" si="15"/>
         <v>7.3561168844881786E-2</v>
       </c>
       <c r="L51" s="14">
-        <f>L32/L19</f>
+        <f t="shared" si="15"/>
         <v>7.0244867883705903E-2</v>
       </c>
       <c r="M51" s="14">
-        <f>M32/M19</f>
+        <f t="shared" si="15"/>
         <v>5.6864618917550402E-2</v>
       </c>
       <c r="N51" s="14">
-        <f>N32/N19</f>
+        <f t="shared" si="15"/>
         <v>6.2205793564023532E-2</v>
       </c>
       <c r="O51" s="4">
-        <f>O32/O19</f>
+        <f t="shared" si="15"/>
         <v>8.5683123968280761E-2</v>
       </c>
       <c r="P51" s="4">
-        <f>P32/P19</f>
+        <f t="shared" si="15"/>
         <v>8.9577110681314229E-2</v>
       </c>
       <c r="Q51" s="4">
-        <f>Q32/Q19</f>
+        <f t="shared" si="15"/>
         <v>6.6309557195253097E-2</v>
       </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
